--- a/mass_attenuation_coeffs.xlsx
+++ b/mass_attenuation_coeffs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\teaching\GG2\python\complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d749a0cf213caa4/E/2021- Cambridge/IIA/GG2/gg2_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_967ADA74EA7BECC1720EA6237CA05F9229FF19AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16382" windowHeight="8191" tabRatio="619" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="619" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Air" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,20 @@
     <sheet name="Materials" sheetId="13" r:id="rId18"/>
     <sheet name="Sources" sheetId="16" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -240,12 +254,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +311,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -318,7 +338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14025,7 +14044,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14046,7 +14064,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -14087,7 +14105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14128,7 +14145,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24160,7 +24177,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -24255,7 +24272,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1056" name="Chart 3"/>
+        <xdr:cNvPr id="1056" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -24292,7 +24315,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10267" name="Chart 1"/>
+        <xdr:cNvPr id="10267" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00001B280000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -24659,14 +24688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25282,6 +25311,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -25292,14 +25322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25915,6 +25945,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -25925,14 +25956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26548,6 +26579,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -26558,14 +26590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27148,6 +27180,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -27158,14 +27191,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27828,20 +27861,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28456,20 +28490,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29084,20 +29119,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29760,20 +29796,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -30355,20 +30392,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -43233,6 +43271,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -43240,14 +43279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
       <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -49079,20 +49118,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -49804,6 +49844,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -49814,14 +49855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -50614,6 +50655,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -50624,14 +50666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -51391,6 +51433,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -51401,14 +51444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -51991,6 +52034,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -52001,14 +52045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -52834,6 +52878,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -52844,14 +52889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -53644,6 +53689,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -53654,14 +53700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -54277,6 +54323,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -54287,14 +54334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -54910,6 +54957,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/mass_attenuation_coeffs.xlsx
+++ b/mass_attenuation_coeffs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d749a0cf213caa4/E/2021- Cambridge/IIA/GG2/gg2_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\teaching\GG2\python\complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_967ADA74EA7BECC1720EA6237CA05F9229FF19AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="619" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16382" windowHeight="8191" tabRatio="619" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Air" sheetId="1" r:id="rId1"/>
@@ -33,20 +32,7 @@
     <sheet name="Materials" sheetId="13" r:id="rId18"/>
     <sheet name="Sources" sheetId="16" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -254,18 +240,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +291,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -338,6 +318,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -14044,6 +14025,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14064,7 +14046,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -14105,6 +14087,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -14145,7 +14128,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24177,7 +24160,7 @@
                 <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -24272,13 +24255,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1056" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1056" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -24315,13 +24292,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10267" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00001B280000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10267" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -24688,14 +24659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25311,7 +25282,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -25322,14 +25292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25945,7 +25915,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -25956,14 +25925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26579,7 +26548,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -26590,14 +26558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27180,7 +27148,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -27191,14 +27158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -27861,21 +27828,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28490,21 +28456,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29119,21 +29084,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -29796,21 +29760,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -30392,21 +30355,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -43271,7 +43233,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -43279,14 +43240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView topLeftCell="A189" workbookViewId="0">
       <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -49118,21 +49079,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -49844,7 +49804,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -49855,14 +49814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -50655,7 +50614,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -50666,14 +50624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -51433,7 +51391,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -51444,14 +51401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -52034,7 +51991,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -52045,14 +52001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -52878,7 +52834,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -52889,14 +52844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -53689,7 +53644,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -53700,14 +53654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -54323,7 +54277,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -54334,14 +54287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="12.65" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -54957,7 +54910,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
